--- a/Assets/Scripts/Core/Parser/vfx.xlsx
+++ b/Assets/Scripts/Core/Parser/vfx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wnsrl\OneDrive\바탕 화면\Dev\IdleGameProject\Assets\Scripts\Core\Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25E1BF1-EEA1-4F99-989A-4AF431FC499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20614EA9-7936-4FB9-BFD1-3F09ADAE50CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2910" windowWidth="19710" windowHeight="12645" activeTab="1" xr2:uid="{C5DB7100-F031-4C99-88CC-0430EEAD2659}"/>
+    <workbookView xWindow="3570" yWindow="2355" windowWidth="18765" windowHeight="12645" xr2:uid="{C5DB7100-F031-4C99-88CC-0430EEAD2659}"/>
   </bookViews>
   <sheets>
     <sheet name="Pooling" sheetId="1" r:id="rId1"/>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88176729-8E27-4987-99D8-7EE87B5C5E72}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,519 +537,57 @@
         <v>2147483651</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="str">
-        <f>IF(Pooling!$B15="", "", _xlfn.BITOR(Pooling!$B15, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="str">
-        <f>IF(Pooling!$B16="", "", _xlfn.BITOR(Pooling!$B16, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="str">
-        <f>IF(Pooling!$B17="", "", _xlfn.BITOR(Pooling!$B17, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="str">
-        <f>IF(Pooling!$B18="", "", _xlfn.BITOR(Pooling!$B18, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="str">
-        <f>IF(Pooling!$B19="", "", _xlfn.BITOR(Pooling!$B19, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="str">
-        <f>IF(Pooling!$B20="", "", _xlfn.BITOR(Pooling!$B20, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="str">
-        <f>IF(Pooling!$B21="", "", _xlfn.BITOR(Pooling!$B21, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="str">
-        <f>IF(Pooling!$B22="", "", _xlfn.BITOR(Pooling!$B22, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="str">
-        <f>IF(Pooling!$B23="", "", _xlfn.BITOR(Pooling!$B23, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="str">
-        <f>IF(Pooling!$B24="", "", _xlfn.BITOR(Pooling!$B24, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="str">
-        <f>IF(Pooling!$B25="", "", _xlfn.BITOR(Pooling!$B25, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="str">
-        <f>IF(Pooling!$B26="", "", _xlfn.BITOR(Pooling!$B26, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="str">
-        <f>IF(Pooling!$B27="", "", _xlfn.BITOR(Pooling!$B27, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="str">
-        <f>IF(Pooling!$B28="", "", _xlfn.BITOR(Pooling!$B28, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="str">
-        <f>IF(Pooling!$B29="", "", _xlfn.BITOR(Pooling!$B29, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="str">
-        <f>IF(Pooling!$B30="", "", _xlfn.BITOR(Pooling!$B30, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="str">
-        <f>IF(Pooling!$B31="", "", _xlfn.BITOR(Pooling!$B31, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="str">
-        <f>IF(Pooling!$B32="", "", _xlfn.BITOR(Pooling!$B32, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="str">
-        <f>IF(Pooling!$B33="", "", _xlfn.BITOR(Pooling!$B33, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="str">
-        <f>IF(Pooling!$B34="", "", _xlfn.BITOR(Pooling!$B34, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="str">
-        <f>IF(Pooling!$B35="", "", _xlfn.BITOR(Pooling!$B35, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="str">
-        <f>IF(Pooling!$B36="", "", _xlfn.BITOR(Pooling!$B36, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" t="str">
-        <f>IF(Pooling!$B37="", "", _xlfn.BITOR(Pooling!$B37, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" t="str">
-        <f>IF(Pooling!$B38="", "", _xlfn.BITOR(Pooling!$B38, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" t="str">
-        <f>IF(Pooling!$B39="", "", _xlfn.BITOR(Pooling!$B39, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" t="str">
-        <f>IF(Pooling!$B40="", "", _xlfn.BITOR(Pooling!$B40, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="str">
-        <f>IF(Pooling!$B41="", "", _xlfn.BITOR(Pooling!$B41, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="str">
-        <f>IF(Pooling!$B42="", "", _xlfn.BITOR(Pooling!$B42, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" t="str">
-        <f>IF(Pooling!$B43="", "", _xlfn.BITOR(Pooling!$B43, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" t="str">
-        <f>IF(Pooling!$B44="", "", _xlfn.BITOR(Pooling!$B44, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="str">
-        <f>IF(Pooling!$B45="", "", _xlfn.BITOR(Pooling!$B45, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="str">
-        <f>IF(Pooling!$B46="", "", _xlfn.BITOR(Pooling!$B46, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" t="str">
-        <f>IF(Pooling!$B47="", "", _xlfn.BITOR(Pooling!$B47, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" t="str">
-        <f>IF(Pooling!$B48="", "", _xlfn.BITOR(Pooling!$B48, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="str">
-        <f>IF(Pooling!$B49="", "", _xlfn.BITOR(Pooling!$B49, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" t="str">
-        <f>IF(Pooling!$B50="", "", _xlfn.BITOR(Pooling!$B50, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" t="str">
-        <f>IF(Pooling!$B51="", "", _xlfn.BITOR(Pooling!$B51, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" t="str">
-        <f>IF(Pooling!$B52="", "", _xlfn.BITOR(Pooling!$B52, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" t="str">
-        <f>IF(Pooling!$B53="", "", _xlfn.BITOR(Pooling!$B53, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" t="str">
-        <f>IF(Pooling!$B54="", "", _xlfn.BITOR(Pooling!$B54, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" t="str">
-        <f>IF(Pooling!$B55="", "", _xlfn.BITOR(Pooling!$B55, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" t="str">
-        <f>IF(Pooling!$B56="", "", _xlfn.BITOR(Pooling!$B56, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" t="str">
-        <f>IF(Pooling!$B57="", "", _xlfn.BITOR(Pooling!$B57, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" t="str">
-        <f>IF(Pooling!$B58="", "", _xlfn.BITOR(Pooling!$B58, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" t="str">
-        <f>IF(Pooling!$B59="", "", _xlfn.BITOR(Pooling!$B59, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" t="str">
-        <f>IF(Pooling!$B60="", "", _xlfn.BITOR(Pooling!$B60, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" t="str">
-        <f>IF(Pooling!$B61="", "", _xlfn.BITOR(Pooling!$B61, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" t="str">
-        <f>IF(Pooling!$B62="", "", _xlfn.BITOR(Pooling!$B62, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" t="str">
-        <f>IF(Pooling!$B63="", "", _xlfn.BITOR(Pooling!$B63, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" t="str">
-        <f>IF(Pooling!$B64="", "", _xlfn.BITOR(Pooling!$B64, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" t="str">
-        <f>IF(Pooling!$B65="", "", _xlfn.BITOR(Pooling!$B65, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" t="str">
-        <f>IF(Pooling!$B66="", "", _xlfn.BITOR(Pooling!$B66, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" t="str">
-        <f>IF(Pooling!$B67="", "", _xlfn.BITOR(Pooling!$B67, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" t="str">
-        <f>IF(Pooling!$B68="", "", _xlfn.BITOR(Pooling!$B68, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" t="str">
-        <f>IF(Pooling!$B69="", "", _xlfn.BITOR(Pooling!$B69, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" t="str">
-        <f>IF(Pooling!$B70="", "", _xlfn.BITOR(Pooling!$B70, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" t="str">
-        <f>IF(Pooling!$B71="", "", _xlfn.BITOR(Pooling!$B71, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" t="str">
-        <f>IF(Pooling!$B72="", "", _xlfn.BITOR(Pooling!$B72, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" t="str">
-        <f>IF(Pooling!$B73="", "", _xlfn.BITOR(Pooling!$B73, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" t="str">
-        <f>IF(Pooling!$B74="", "", _xlfn.BITOR(Pooling!$B74, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" t="str">
-        <f>IF(Pooling!$B75="", "", _xlfn.BITOR(Pooling!$B75, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" t="str">
-        <f>IF(Pooling!$B76="", "", _xlfn.BITOR(Pooling!$B76, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" t="str">
-        <f>IF(Pooling!$B77="", "", _xlfn.BITOR(Pooling!$B77, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" t="str">
-        <f>IF(Pooling!$B78="", "", _xlfn.BITOR(Pooling!$B78, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" t="str">
-        <f>IF(Pooling!$B79="", "", _xlfn.BITOR(Pooling!$B79, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" t="str">
-        <f>IF(Pooling!$B80="", "", _xlfn.BITOR(Pooling!$B80, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="str">
-        <f>IF(Pooling!$B81="", "", _xlfn.BITOR(Pooling!$B81, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" t="str">
-        <f>IF(Pooling!$B82="", "", _xlfn.BITOR(Pooling!$B82, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" t="str">
-        <f>IF(Pooling!$B83="", "", _xlfn.BITOR(Pooling!$B83, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" t="str">
-        <f>IF(Pooling!$B84="", "", _xlfn.BITOR(Pooling!$B84, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" t="str">
-        <f>IF(Pooling!$B85="", "", _xlfn.BITOR(Pooling!$B85, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" t="str">
-        <f>IF(Pooling!$B86="", "", _xlfn.BITOR(Pooling!$B86, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" t="str">
-        <f>IF(Pooling!$B87="", "", _xlfn.BITOR(Pooling!$B87, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" t="str">
-        <f>IF(Pooling!$B88="", "", _xlfn.BITOR(Pooling!$B88, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" t="str">
-        <f>IF(Pooling!$B89="", "", _xlfn.BITOR(Pooling!$B89, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" t="str">
-        <f>IF(Pooling!$B90="", "", _xlfn.BITOR(Pooling!$B90, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" t="str">
-        <f>IF(Pooling!$B91="", "", _xlfn.BITOR(Pooling!$B91, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" t="str">
-        <f>IF(Pooling!$B92="", "", _xlfn.BITOR(Pooling!$B92, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" t="str">
-        <f>IF(Pooling!$B93="", "", _xlfn.BITOR(Pooling!$B93, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" t="str">
-        <f>IF(Pooling!$B94="", "", _xlfn.BITOR(Pooling!$B94, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" t="str">
-        <f>IF(Pooling!$B95="", "", _xlfn.BITOR(Pooling!$B95, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" t="str">
-        <f>IF(Pooling!$B96="", "", _xlfn.BITOR(Pooling!$B96, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" t="str">
-        <f>IF(Pooling!$B97="", "", _xlfn.BITOR(Pooling!$B97, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" t="str">
-        <f>IF(Pooling!$B98="", "", _xlfn.BITOR(Pooling!$B98, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" t="str">
-        <f>IF(Pooling!$B99="", "", _xlfn.BITOR(Pooling!$B99, 2147483648))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" t="str">
-        <f>IF(Pooling!$B100="", "", _xlfn.BITOR(Pooling!$B100, 2147483648))</f>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="str">
+        <f>IF(Pooling!$B5="", "", _xlfn.BITOR(Pooling!$B5, 2147483648))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="str">
+        <f>IF(Pooling!$B6="", "", _xlfn.BITOR(Pooling!$B6, 2147483648))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="str">
+        <f>IF(Pooling!$B7="", "", _xlfn.BITOR(Pooling!$B7, 2147483648))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="str">
+        <f>IF(Pooling!$B8="", "", _xlfn.BITOR(Pooling!$B8, 2147483648))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="str">
+        <f>IF(Pooling!$B9="", "", _xlfn.BITOR(Pooling!$B9, 2147483648))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="str">
+        <f>IF(Pooling!$B10="", "", _xlfn.BITOR(Pooling!$B10, 2147483648))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="str">
+        <f>IF(Pooling!$B11="", "", _xlfn.BITOR(Pooling!$B11, 2147483648))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f>IF(Pooling!$B12="", "", _xlfn.BITOR(Pooling!$B12, 2147483648))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="str">
+        <f>IF(Pooling!$B13="", "", _xlfn.BITOR(Pooling!$B13, 2147483648))</f>
         <v/>
       </c>
     </row>
@@ -1067,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13003081-314E-4130-A223-7E9213A1E979}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
